--- a/medicine/Psychotrope/Decanter_(revue)/Decanter_(revue).xlsx
+++ b/medicine/Psychotrope/Decanter_(revue)/Decanter_(revue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Decanter est une revue mensuelle vendue sur abonnements, créée en 1975, qui paraît dans environ 90 pays. Ce magazine fournit des informations et des conseils sur tout ce qui concerne le vin et organise chaque année un concours des vins[1].
+Decanter est une revue mensuelle vendue sur abonnements, créée en 1975, qui paraît dans environ 90 pays. Ce magazine fournit des informations et des conseils sur tout ce qui concerne le vin et organise chaque année un concours des vins.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Trophées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Decanter World Wine Awards, référence mondiale dans le domaine vinicole[2], est composé de plusieurs catégories. Les résultats sont publiés sur le site web et dans le numéro d'octobre du journal. Ce concours fait partie d'autres compétitions organisées par la revue, comme le Decanter Asia Wine Awards[1] ou le Decanter Man of the year par exemple.
-Il existe 35 trophées internationaux décernés chaque année, récompensant différentes catégories de vins[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Decanter World Wine Awards, référence mondiale dans le domaine vinicole, est composé de plusieurs catégories. Les résultats sont publiés sur le site web et dans le numéro d'octobre du journal. Ce concours fait partie d'autres compétitions organisées par la revue, comme le Decanter Asia Wine Awards ou le Decanter Man of the year par exemple.
+Il existe 35 trophées internationaux décernés chaque année, récompensant différentes catégories de vins
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Prix Homme de l'Année de Decanter</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1984, Decanter organise aussi un concours international viticole qui reconnaît et célèbre une importante personnalité influente du monde du vin (viticulteur, œnologue, sommelier, critique, scientifique... ) ayant apporté une contribution exceptionnelle au monde du vin, le prix Homme de l'année de Decanter (Decanter Man of the year en anglais). Chaque année à Londres, chaque lauréat est soigneusement sélectionné par un jury composé de personnalités clés du monde viticole du monde entier. En 2019, le prix change de nom afin d'être moins genré et devient le Decanter Hall of Fame.
-Liste des lauréats[4],[5] :
+Liste des lauréats, :
 2023 : Dirk van der Niepoort -  Portugal
 2022 : Rosa Kruger -  Afrique du Sud
 2021 : Peter Gago (en) -  Australie
